--- a/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03979283500159582</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09105671978536461</v>
+        <v>0.0910567197853646</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05173841074866291</v>
@@ -697,7 +697,7 @@
         <v>0.04561562274340322</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08726206466183875</v>
+        <v>0.08726206466183876</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02743047390551531</v>
+        <v>0.02724568378535075</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03342512794241356</v>
+        <v>0.03354311243066783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02969249223595886</v>
+        <v>0.03120747827503179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06126047052609939</v>
+        <v>0.06099183157033804</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03628091952368959</v>
+        <v>0.03646710903272218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04356920336805355</v>
+        <v>0.04378334710584133</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02133551107809079</v>
+        <v>0.02184825796667986</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0706311073841748</v>
+        <v>0.06965314451919352</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03741503617941162</v>
+        <v>0.03696916808848254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04350026539024771</v>
+        <v>0.04284417021201368</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03164501702031213</v>
+        <v>0.03125353999504101</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07247595236232909</v>
+        <v>0.06991923550181503</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06785629733409053</v>
+        <v>0.06829141973564677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07907555469415205</v>
+        <v>0.08323904847874652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07858113182114503</v>
+        <v>0.07739703724489069</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1126806688846054</v>
+        <v>0.1105778845566244</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09455313277364635</v>
+        <v>0.08949366184938619</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1127406205911811</v>
+        <v>0.1130805733013805</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06600074732543228</v>
+        <v>0.06511621217613427</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1151134751886404</v>
+        <v>0.1152605332593484</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06992002793755416</v>
+        <v>0.06881351579454893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08088669951600877</v>
+        <v>0.08126293794056845</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06287593831410353</v>
+        <v>0.063110817691427</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1049178413876029</v>
+        <v>0.1048872714483126</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.06413979195919471</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09630472033355211</v>
+        <v>0.09630472033355209</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08099555568234582</v>
@@ -833,7 +833,7 @@
         <v>0.07691415250762963</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09623611123629047</v>
+        <v>0.09623611123629049</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01947408397101599</v>
+        <v>0.01859478616949289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03868353541769269</v>
+        <v>0.03893953101024126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04288719762197901</v>
+        <v>0.04225784536968543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07118532301035801</v>
+        <v>0.07073651046774336</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05678671581458425</v>
+        <v>0.05618066188820692</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06849574266182415</v>
+        <v>0.06766295764652004</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06107169371592869</v>
+        <v>0.06170383545394828</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07279448503535761</v>
+        <v>0.07454598058332573</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04187053780894003</v>
+        <v>0.04323773303444509</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0584367568928354</v>
+        <v>0.0578627711280148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.059346367730052</v>
+        <v>0.05714989126189836</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07849192851451978</v>
+        <v>0.07856555698246336</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06588480340506146</v>
+        <v>0.06320291024283498</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0879298415646137</v>
+        <v>0.09497392732049828</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09328351022304346</v>
+        <v>0.098395549879277</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1287401554194251</v>
+        <v>0.1277313354184223</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1117655497790979</v>
+        <v>0.1121066267395317</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1387077268364769</v>
+        <v>0.1366544619272086</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1233583943337923</v>
+        <v>0.1227162311544722</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1222298204508498</v>
+        <v>0.1238143153213807</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07855829149944479</v>
+        <v>0.0803990564292912</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1025224453721033</v>
+        <v>0.1009198409958279</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09891302272459572</v>
+        <v>0.09628282270190557</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1151852087026655</v>
+        <v>0.1144115266646693</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03385853880563484</v>
+        <v>0.03439807292094668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07085283207078999</v>
+        <v>0.06870735930714424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05915339059253801</v>
+        <v>0.0599668500751224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09895067763818134</v>
+        <v>0.09914963883742883</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07594130503046585</v>
+        <v>0.07623998371072803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07526328000386565</v>
+        <v>0.07893374692379053</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08622400776314426</v>
+        <v>0.08848688623096221</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1104649896979365</v>
+        <v>0.1136000916414261</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05030615599827345</v>
+        <v>0.05015954477709265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07926868801167744</v>
+        <v>0.07852884953503593</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0722715543877589</v>
+        <v>0.0737888291810592</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.111624091848424</v>
+        <v>0.1087377200274272</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06977912996153417</v>
+        <v>0.06943830512098743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1171374626136115</v>
+        <v>0.1147287054205895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1101558960297424</v>
+        <v>0.1103370774206647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1627600398620144</v>
+        <v>0.1607878880451951</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1759871079945055</v>
+        <v>0.1810033449593957</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1608403549038493</v>
+        <v>0.1593417438128233</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1999159830272201</v>
+        <v>0.201615359315676</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1969835208778938</v>
+        <v>0.1963115252606838</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08842608683862219</v>
+        <v>0.08876313435205774</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1179792586887564</v>
+        <v>0.117850695185482</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.119047958501264</v>
+        <v>0.121490819194018</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1617218062359704</v>
+        <v>0.1592182523555323</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04877003213147141</v>
+        <v>0.04901275477588466</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08209818551318705</v>
+        <v>0.08110065367571194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06770188084138622</v>
+        <v>0.06606604229188821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1008002805859819</v>
+        <v>0.100118252013386</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06201084294209933</v>
+        <v>0.06007254940554555</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1027512511915225</v>
+        <v>0.1055709564488473</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07756864117634987</v>
+        <v>0.07822166457610392</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.118627112347708</v>
+        <v>0.1159874164697323</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05646836645631392</v>
+        <v>0.05675880776660193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09652601732803168</v>
+        <v>0.09726653390289768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07611771478185712</v>
+        <v>0.07668903820659906</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1132712307543706</v>
+        <v>0.1114336120941476</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07523039951258237</v>
+        <v>0.0760800533030081</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1176658529174148</v>
+        <v>0.1174393009204254</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09865751445602668</v>
+        <v>0.100437420817375</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1402105998557397</v>
+        <v>0.1414193508589449</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09966575032066873</v>
+        <v>0.09977503008424526</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.156150900171079</v>
+        <v>0.1566081816559578</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1235033051110139</v>
+        <v>0.121720710082673</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1597584365744139</v>
+        <v>0.1595736485538106</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07950360028799709</v>
+        <v>0.07939880392065357</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1270412333900394</v>
+        <v>0.1269783904482542</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1026137953948014</v>
+        <v>0.1022210730086775</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1403048562119343</v>
+        <v>0.141669425548436</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02909453477353809</v>
+        <v>0.02899327857060621</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06107481328832909</v>
+        <v>0.06021550734982681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07625373138385351</v>
+        <v>0.07543661971885275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08130298579440567</v>
+        <v>0.08053433506259705</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0680932025774619</v>
+        <v>0.06711295952547781</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1552630395310562</v>
+        <v>0.1531738393164491</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1568519628398947</v>
+        <v>0.1573009227736781</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1682958360035064</v>
+        <v>0.1698621074677704</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05845523592096404</v>
+        <v>0.05830845763295885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1229904154772582</v>
+        <v>0.1212701814559929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1269097741765545</v>
+        <v>0.1280128635850206</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1388407596177743</v>
+        <v>0.1382258399521958</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07671384081127647</v>
+        <v>0.07860279320751158</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.10795728131443</v>
+        <v>0.1115706601375166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1254361844402555</v>
+        <v>0.1237493928149303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1302967402173603</v>
+        <v>0.1299044243284843</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1159152340257017</v>
+        <v>0.1156045987554448</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2101646437851811</v>
+        <v>0.2088907094301297</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2168165422062592</v>
+        <v>0.2150020610854086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2135259350984763</v>
+        <v>0.2149673936806149</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09250491744422788</v>
+        <v>0.09378653070163097</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1644784535212378</v>
+        <v>0.1639117988912487</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1655547980066565</v>
+        <v>0.1684175817833132</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1732275908027412</v>
+        <v>0.1725085141432488</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.0252587096250068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06896784312023166</v>
+        <v>0.06896784312023164</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08886102991977353</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01863217520542167</v>
+        <v>0.01805822775796002</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03008930550142816</v>
+        <v>0.02980143085243295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01076374410740678</v>
+        <v>0.0108669872416145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03646374513443274</v>
+        <v>0.03581735754156876</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07456585432108073</v>
+        <v>0.07392412812052115</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1131054812700922</v>
+        <v>0.1147232476112303</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09818434914745985</v>
+        <v>0.09921306240001934</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1448857673232969</v>
+        <v>0.142348699299435</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06611971215959248</v>
+        <v>0.06559023444979817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1003146539720792</v>
+        <v>0.100568559255385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08316752197017646</v>
+        <v>0.08166346118109824</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1252645443225761</v>
+        <v>0.1241234091803809</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05756159187315153</v>
+        <v>0.05852564198007706</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08936431331648946</v>
+        <v>0.08897526707481923</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0505261915264244</v>
+        <v>0.04823928334289296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1280301128046583</v>
+        <v>0.1286708206989629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1054122386513751</v>
+        <v>0.1060067475128161</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1568591765474256</v>
+        <v>0.1565446304417213</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.139988300520486</v>
+        <v>0.1407048094102203</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1893868415892437</v>
+        <v>0.1870470134771375</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0929159605703313</v>
+        <v>0.09268251065547296</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1372793498712731</v>
+        <v>0.1380552523309599</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1162397500559979</v>
+        <v>0.1153333858958782</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1649252473044659</v>
+        <v>0.1682784260613069</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04310619177338933</v>
+        <v>0.04354395350937709</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07137315789055915</v>
+        <v>0.07135448439296256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06462427876184704</v>
+        <v>0.0654315794067834</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09440568400244703</v>
+        <v>0.09472567150991557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07490540300462417</v>
+        <v>0.0745974344947422</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1219770828790726</v>
+        <v>0.1217552844882665</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1072437220181327</v>
+        <v>0.1075241101967181</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1362337121183344</v>
+        <v>0.13560096242634</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06234465199378095</v>
+        <v>0.06177421492705008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1001253625109154</v>
+        <v>0.09867939490615638</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08893441208344315</v>
+        <v>0.08934211791230394</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1181890523134547</v>
+        <v>0.1189639565667179</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05833133353959957</v>
+        <v>0.05936649826968913</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09174095804870583</v>
+        <v>0.09114625468721171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08315809983853184</v>
+        <v>0.08362134560406792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1178523910928588</v>
+        <v>0.1168580914499674</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09518250450304525</v>
+        <v>0.09433225885860622</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1454181643323526</v>
+        <v>0.1458296854145664</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1287688362042483</v>
+        <v>0.1286481590015303</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1562038932953536</v>
+        <v>0.1569094054156662</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07474339661771126</v>
+        <v>0.07465539219444692</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.114993858224045</v>
+        <v>0.1149698025399114</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1033779573849207</v>
+        <v>0.1043081834797803</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1335397497565773</v>
+        <v>0.1333327118219769</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12996</v>
+        <v>12908</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14614</v>
+        <v>14665</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12741</v>
+        <v>13391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33731</v>
+        <v>33583</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11127</v>
+        <v>11184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13657</v>
+        <v>13724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7405</v>
+        <v>7583</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34497</v>
+        <v>34019</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29201</v>
+        <v>28853</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32654</v>
+        <v>32161</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>24561</v>
+        <v>24257</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>75305</v>
+        <v>72648</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32149</v>
+        <v>32355</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34573</v>
+        <v>36393</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33719</v>
+        <v>33210</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62044</v>
+        <v>60886</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28998</v>
+        <v>27446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35338</v>
+        <v>35444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22906</v>
+        <v>22599</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56223</v>
+        <v>56295</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>54570</v>
+        <v>53706</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60718</v>
+        <v>61000</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48801</v>
+        <v>48983</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>109013</v>
+        <v>108981</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7146</v>
+        <v>6823</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16201</v>
+        <v>16308</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16132</v>
+        <v>15895</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34398</v>
+        <v>34181</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21117</v>
+        <v>20892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23152</v>
+        <v>22871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22670</v>
+        <v>22905</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30802</v>
+        <v>31544</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30934</v>
+        <v>31944</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44225</v>
+        <v>43791</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>44352</v>
+        <v>42711</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>71142</v>
+        <v>71208</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24175</v>
+        <v>23191</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36825</v>
+        <v>39775</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35088</v>
+        <v>37010</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62209</v>
+        <v>61721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41562</v>
+        <v>41689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46885</v>
+        <v>46191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>45791</v>
+        <v>45553</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51721</v>
+        <v>52391</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58039</v>
+        <v>59399</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>77590</v>
+        <v>76377</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>73922</v>
+        <v>71956</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>104399</v>
+        <v>103697</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18364</v>
+        <v>18657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>44416</v>
+        <v>43071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30745</v>
+        <v>31167</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>46619</v>
+        <v>46713</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12742</v>
+        <v>12792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19578</v>
+        <v>20533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14324</v>
+        <v>14700</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20712</v>
+        <v>21300</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35726</v>
+        <v>35622</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>70312</v>
+        <v>69655</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>49569</v>
+        <v>50609</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>73519</v>
+        <v>71618</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37847</v>
+        <v>37663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73431</v>
+        <v>71921</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57253</v>
+        <v>57347</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76682</v>
+        <v>75753</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29527</v>
+        <v>30369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41839</v>
+        <v>41449</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33211</v>
+        <v>33493</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36934</v>
+        <v>36808</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>62798</v>
+        <v>63037</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>104648</v>
+        <v>104534</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>81651</v>
+        <v>83326</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>106515</v>
+        <v>104866</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60394</v>
+        <v>60694</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>94980</v>
+        <v>93826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>77696</v>
+        <v>75819</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>113938</v>
+        <v>113168</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>44293</v>
+        <v>42909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>78564</v>
+        <v>80720</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63997</v>
+        <v>64535</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>102074</v>
+        <v>99803</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>110261</v>
+        <v>110828</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>185476</v>
+        <v>186899</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>150154</v>
+        <v>151281</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>225500</v>
+        <v>221842</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93160</v>
+        <v>94213</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>136129</v>
+        <v>135867</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>113222</v>
+        <v>115265</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>158486</v>
+        <v>159852</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>71190</v>
+        <v>71268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119393</v>
+        <v>119743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101894</v>
+        <v>100423</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>137466</v>
+        <v>137307</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>155240</v>
+        <v>155036</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>244111</v>
+        <v>243991</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>202422</v>
+        <v>201647</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>279319</v>
+        <v>282035</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10199</v>
+        <v>10164</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31185</v>
+        <v>30746</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47331</v>
+        <v>46824</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46026</v>
+        <v>45591</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>38728</v>
+        <v>38171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>117928</v>
+        <v>116341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>115795</v>
+        <v>116126</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>139656</v>
+        <v>140956</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53738</v>
+        <v>53603</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>156214</v>
+        <v>154029</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>172464</v>
+        <v>173963</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>193813</v>
+        <v>192955</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26892</v>
+        <v>27555</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55123</v>
+        <v>56968</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77859</v>
+        <v>76812</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73762</v>
+        <v>73540</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>65927</v>
+        <v>65750</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>159627</v>
+        <v>158660</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>160064</v>
+        <v>158724</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>177190</v>
+        <v>178386</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>85040</v>
+        <v>86219</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>208909</v>
+        <v>208189</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>224981</v>
+        <v>228871</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>241815</v>
+        <v>240811</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5556</v>
+        <v>5385</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8002</v>
+        <v>7926</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3091</v>
+        <v>3120</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8650</v>
+        <v>8497</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>93115</v>
+        <v>92313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>125363</v>
+        <v>127156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>105733</v>
+        <v>106840</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>122069</v>
+        <v>119931</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>102285</v>
+        <v>101465</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>137864</v>
+        <v>138213</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>113442</v>
+        <v>111391</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>135254</v>
+        <v>134022</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17165</v>
+        <v>17452</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23766</v>
+        <v>23663</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14508</v>
+        <v>13852</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30372</v>
+        <v>30524</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>131635</v>
+        <v>132377</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>173858</v>
+        <v>173509</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>150750</v>
+        <v>151522</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>159562</v>
+        <v>157591</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>143737</v>
+        <v>143376</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>188665</v>
+        <v>189731</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158554</v>
+        <v>157318</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>178078</v>
+        <v>181698</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>140965</v>
+        <v>142397</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>243835</v>
+        <v>243771</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>218459</v>
+        <v>221188</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>324627</v>
+        <v>325728</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>253040</v>
+        <v>251999</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>432298</v>
+        <v>431512</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>377984</v>
+        <v>378972</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>494781</v>
+        <v>492483</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>414487</v>
+        <v>410694</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>696915</v>
+        <v>686851</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>614091</v>
+        <v>616906</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>835656</v>
+        <v>841135</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>190755</v>
+        <v>194140</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>313418</v>
+        <v>311386</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>281112</v>
+        <v>282678</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>405252</v>
+        <v>401833</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>321538</v>
+        <v>318666</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>515375</v>
+        <v>516834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>453850</v>
+        <v>453425</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>567310</v>
+        <v>569873</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>496918</v>
+        <v>496332</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>800406</v>
+        <v>800239</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>713823</v>
+        <v>720246</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>944193</v>
+        <v>942729</v>
       </c>
     </row>
     <row r="32">
